--- a/experiment_results/backup_result/worst_case/Email/2wise/0.5_worst_case.xlsx
+++ b/experiment_results/backup_result/worst_case/Email/2wise/0.5_worst_case.xlsx
@@ -22,13 +22,15 @@
     <sheet name="rogot1" sheetId="13" r:id="rId13"/>
     <sheet name="geometric_mean" sheetId="14" r:id="rId14"/>
     <sheet name="m2" sheetId="15" r:id="rId15"/>
+    <sheet name="wong1" sheetId="16" r:id="rId16"/>
+    <sheet name="sokal" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="13">
   <si>
     <t>MUTATED_PROJECT</t>
   </si>
@@ -450,7 +452,7 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -482,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -514,7 +516,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -591,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -623,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -655,7 +657,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -732,7 +734,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -764,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -796,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -873,7 +875,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -905,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -937,7 +939,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1014,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1046,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1078,7 +1080,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1155,7 +1157,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1187,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1219,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1296,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1328,7 +1330,7 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1360,7 +1362,289 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>247</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>118</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>247</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>99</v>
+      </c>
+      <c r="L2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>110</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>247</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>99</v>
+      </c>
+      <c r="L3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>133</v>
+      </c>
+      <c r="G4">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>247</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>118</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>247</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>14</v>
+      </c>
+      <c r="L2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>110</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>247</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>133</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1437,7 +1721,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1469,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1501,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1578,7 +1862,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1610,7 +1894,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1642,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1719,7 +2003,7 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -1751,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1783,7 +2067,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -1851,16 +2135,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1883,16 +2167,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1915,16 +2199,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -2001,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>11</v>
@@ -2033,7 +2317,7 @@
         <v>30</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -2065,7 +2349,7 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>22</v>
@@ -2142,7 +2426,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2165,16 +2449,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -2206,7 +2490,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2283,7 +2567,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2306,16 +2590,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -2347,7 +2631,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2424,7 +2708,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2456,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2488,7 +2772,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>2</v>
